--- a/data_analysis/data/export/user_action_statistics_20220903.xlsx
+++ b/data_analysis/data/export/user_action_statistics_20220903.xlsx
@@ -124,55 +124,55 @@
     <t>netflix_hugepreview_disable</t>
   </si>
   <si>
-    <t>00060000DEDE392A</t>
-  </si>
-  <si>
-    <t>100935129088843356602</t>
-  </si>
-  <si>
-    <t>100937764714847904352</t>
-  </si>
-  <si>
-    <t>103564003925636425038</t>
-  </si>
-  <si>
-    <t>104694983709365197975</t>
-  </si>
-  <si>
-    <t>105012360635537965053</t>
-  </si>
-  <si>
-    <t>107279156336793537009</t>
-  </si>
-  <si>
-    <t>107360463347436073559</t>
-  </si>
-  <si>
-    <t>107711334134980088812</t>
-  </si>
-  <si>
-    <t>107772607988378311880</t>
-  </si>
-  <si>
-    <t>107858562133949273618</t>
-  </si>
-  <si>
-    <t>108565623227009900784</t>
-  </si>
-  <si>
-    <t>109160689719008133998</t>
-  </si>
-  <si>
-    <t>110353078720257828530</t>
-  </si>
-  <si>
-    <t>115767467286550120166</t>
-  </si>
-  <si>
-    <t>116084227873580561392</t>
-  </si>
-  <si>
-    <t>117105890044607595797</t>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
   </si>
 </sst>
 </file>

--- a/data_analysis/data/export/user_action_statistics_20220903.xlsx
+++ b/data_analysis/data/export/user_action_statistics_20220903.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -122,57 +122,6 @@
   </si>
   <si>
     <t>netflix_hugepreview_disable</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
   </si>
 </sst>
 </file>
@@ -650,8 +599,8 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -763,8 +712,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="B3">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -876,8 +825,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="B4">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -989,8 +938,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
+      <c r="B5">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1102,8 +1051,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1215,8 +1164,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -1328,8 +1277,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1441,8 +1390,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1554,8 +1503,8 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1667,8 +1616,8 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
+      <c r="B11">
+        <v>16</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1780,8 +1729,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
+      <c r="B12">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1893,8 +1842,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
+      <c r="B13">
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2006,8 +1955,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
+      <c r="B14">
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2119,8 +2068,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
+      <c r="B15">
+        <v>8</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2232,8 +2181,8 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2345,8 +2294,8 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
+      <c r="B17">
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2458,8 +2407,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
+      <c r="B18">
+        <v>13</v>
       </c>
       <c r="C18">
         <v>3</v>
